--- a/biology/Médecine/Commission_du_génie_biomoléculaire/Commission_du_génie_biomoléculaire.xlsx
+++ b/biology/Médecine/Commission_du_génie_biomoléculaire/Commission_du_génie_biomoléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_du_g%C3%A9nie_biomol%C3%A9culaire</t>
+          <t>Commission_du_génie_biomoléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La Commission du génie biomoléculaire (CGB) avait, entre 1986 et 2008, pour mission d'évaluer pour le compte du gouvernement français les risques pour la santé publique et l'environnement, liés à la dissémination d'organismes génétiquement modifiés (OGM), conformément à l'article L531-4 du Code de l'Environnement. La loi du 25 juin 2008 relative aux organismes génétiquement modifiés a remplacé la CGB par le Haut Conseil des biotechnologies, dont les missions sont plus larges. 
 Le dernier président de la CGB a été Marc Fellous, qui avait succédé à Axel Kahn. Cette commission comprenait dix-huit membres:
